--- a/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
+++ b/InputData/endo-learn/GBEtPR/Grid Battery Energy to Power Ratio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\IL\endo-learn\GBEtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/IL/endo-learn/GBEtPR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B158D7B3-9F33-4674-BAFC-F55631AAF907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C47914-3FAC-7F41-B98A-8C3909F89C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -443,13 +443,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -457,10 +457,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="8">
-        <v>44538</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,59 +468,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
     </row>
   </sheetData>
@@ -540,18 +540,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
